--- a/fall22_salary_review/salary_by_division.xlsx
+++ b/fall22_salary_review/salary_by_division.xlsx
@@ -1,95 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f55ed08a9185297/Documents/GitHub/dbk_datadesk/fall22_salary_review/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5247EC6C08C42C18BE2CABB7F8922DE8EF74886D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E838ADEE-3F8C-477C-8AD5-7D23FC747EB2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">category_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. James Clark School of Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Agriculture &amp; Natural Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Arts &amp; Humanities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Behavioral &amp; Social Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Computer, Math &amp; Natural Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Information Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philip Merrill College of Journalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert H. Smith School of Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School of Architecture, Planning, &amp; Preservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School of Public Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exempt Contingent II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exempt Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Tenured, Non-Regular Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Tenured, Term. Contr. Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Tenured,Cont. Contr. Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonexempt Contingent II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonexempt Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenure Track Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenured Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_salary</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+  <si>
+    <t>category_status</t>
+  </si>
+  <si>
+    <t>A. James Clark School of Engineering</t>
+  </si>
+  <si>
+    <t>College of Agriculture &amp; Natural Resources</t>
+  </si>
+  <si>
+    <t>College of Arts &amp; Humanities</t>
+  </si>
+  <si>
+    <t>College of Behavioral &amp; Social Sciences</t>
+  </si>
+  <si>
+    <t>College of Computer, Math &amp; Natural Sciences</t>
+  </si>
+  <si>
+    <t>College of Education</t>
+  </si>
+  <si>
+    <t>College of Information Studies</t>
+  </si>
+  <si>
+    <t>Philip Merrill College of Journalism</t>
+  </si>
+  <si>
+    <t>Robert H. Smith School of Business</t>
+  </si>
+  <si>
+    <t>School of Architecture, Planning, &amp; Preservation</t>
+  </si>
+  <si>
+    <t>School of Public Health</t>
+  </si>
+  <si>
+    <t>School of Public Policy</t>
+  </si>
+  <si>
+    <t>Exempt Contingent II</t>
+  </si>
+  <si>
+    <t>Exempt Regular</t>
+  </si>
+  <si>
+    <t>Non-Tenured, Non-Regular Faculty</t>
+  </si>
+  <si>
+    <t>Non-Tenured, Term. Contr. Faculty</t>
+  </si>
+  <si>
+    <t>Non-Tenured,Cont. Contr. Faculty</t>
+  </si>
+  <si>
+    <t>Nonexempt Contingent II</t>
+  </si>
+  <si>
+    <t>Nonexempt Regular</t>
+  </si>
+  <si>
+    <t>Tenure Track Faculty</t>
+  </si>
+  <si>
+    <t>Tenured Faculty</t>
+  </si>
+  <si>
+    <t>avg_salary</t>
+  </si>
+  <si>
+    <t>All Colleges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -125,6 +135,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,14 +425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,369 +474,390 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>55816.755</v>
-      </c>
-      <c r="C2" t="n">
-        <v>52953.075</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>55816.754999999997</v>
+      </c>
+      <c r="C2">
+        <v>52953.074999999997</v>
+      </c>
+      <c r="D2">
         <v>55275</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>80000</v>
       </c>
-      <c r="H2" t="n">
-        <v>49002.815</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" t="n">
+      <c r="H2">
+        <v>49002.815000000002</v>
+      </c>
+      <c r="J2">
         <v>88270.83</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>72737.14</v>
       </c>
-      <c r="L2" t="n">
-        <v>66726.32</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>66726.320000000007</v>
+      </c>
+      <c r="M2">
         <v>72810.31</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="N2">
+        <v>57680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>91898.83</v>
       </c>
-      <c r="C3" t="n">
-        <v>79571.995</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>79571.994999999995</v>
+      </c>
+      <c r="D3">
         <v>78468.87</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>82100</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>83780.61</v>
       </c>
-      <c r="G3" t="n">
-        <v>72405.15</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>72405.149999999994</v>
+      </c>
+      <c r="H3">
         <v>75075</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>96942.37</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>83568.92</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>84192.19</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>80786.61</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>97050.29</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="N3">
+        <v>82554.570000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>19022</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>12000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>12456</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12696.28</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>20660.22</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>10000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>10718</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>8573.74</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>21000</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>20712.12</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>11965.03</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>16973.64</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="N4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>87905.35</v>
       </c>
-      <c r="C5" t="n">
-        <v>75565.145</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>75565.145000000004</v>
+      </c>
+      <c r="D5">
         <v>51288</v>
       </c>
-      <c r="E5" t="n">
-        <v>77466.71</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>77466.710000000006</v>
+      </c>
+      <c r="F5">
         <v>82667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>61295.44</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>96214</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>95499.54</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>116820.435</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>30000</v>
       </c>
-      <c r="L5" t="n">
-        <v>65613.49</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>65613.490000000005</v>
+      </c>
+      <c r="M5">
         <v>50914.42</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="N5">
+        <v>64854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>80029.48</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>60949.36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>72871.45</v>
       </c>
-      <c r="E6" t="n">
-        <v>77298.54</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>77298.539999999994</v>
+      </c>
+      <c r="F6">
         <v>78022.5</v>
       </c>
-      <c r="G6" t="n">
-        <v>69214.54</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>69214.539999999994</v>
+      </c>
+      <c r="H6">
         <v>96375.11</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>87864.55</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>165313.29</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>79157.3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>78134.36</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>98460.6</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="N6">
+        <v>75892.005000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="n">
-        <v>40091.8</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>40091.800000000003</v>
+      </c>
+      <c r="C7">
         <v>43202.32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>41461.81</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>28918.955</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>28918.955000000002</v>
+      </c>
+      <c r="N7">
+        <v>43096.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>51369.36</v>
       </c>
-      <c r="C8" t="n">
-        <v>47075.2</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>47075.199999999997</v>
+      </c>
+      <c r="D8">
         <v>50475.88</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>51369.71</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>51248.02</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>52320.94</v>
       </c>
-      <c r="H8" t="n">
-        <v>49517.135</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>49517.135000000002</v>
+      </c>
+      <c r="I8">
         <v>44500</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>52955.85</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>50975.89</v>
       </c>
-      <c r="L8" t="n">
-        <v>56608.545</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8">
+        <v>56608.544999999998</v>
+      </c>
+      <c r="M8">
         <v>52031.49</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="N8">
+        <v>49939.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>113921.29</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>86726.54</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>85000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>106269.51</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>111063.685</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>100000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>117735.55</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>95000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>216515.505</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>86500</v>
       </c>
-      <c r="L9" t="n">
-        <v>103658.085</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9">
+        <v>103658.08500000001</v>
+      </c>
+      <c r="M9">
         <v>113649.39</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="N9">
+        <v>101945.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>156507.14</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>156507.14000000001</v>
+      </c>
+      <c r="C10">
         <v>125141.91</v>
       </c>
-      <c r="D10" t="n">
-        <v>115226.445</v>
-      </c>
-      <c r="E10" t="n">
-        <v>162801.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>145308.865</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D10">
+        <v>115226.44500000001</v>
+      </c>
+      <c r="E10">
+        <v>162801.60000000001</v>
+      </c>
+      <c r="F10">
+        <v>145308.86499999999</v>
+      </c>
+      <c r="G10">
         <v>134696.63</v>
       </c>
-      <c r="H10" t="n">
-        <v>137735.61</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>137735.60999999999</v>
+      </c>
+      <c r="I10">
         <v>136696.12</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>267957.125</v>
       </c>
-      <c r="K10" t="n">
-        <v>114733.585</v>
-      </c>
-      <c r="L10" t="n">
-        <v>136017.61</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="K10">
+        <v>114733.58500000001</v>
+      </c>
+      <c r="L10">
+        <v>136017.60999999999</v>
+      </c>
+      <c r="M10">
         <v>168206.18</v>
+      </c>
+      <c r="N10">
+        <v>140907.70000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,80 +865,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>57680</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>82554.57</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>82554.570000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>15000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>64854</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="n">
-        <v>75892.005</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>75892.005000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>43096.22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>49939.01</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>101945.68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>140907.7</v>
+      <c r="B10">
+        <v>140907.70000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fall22_salary_review/salary_by_division.xlsx
+++ b/fall22_salary_review/salary_by_division.xlsx
@@ -1,105 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f55ed08a9185297/Documents/GitHub/dbk_datadesk/fall22_salary_review/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5247EC6C08C42C18BE2CABB7F8922DE8EF74886D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E838ADEE-3F8C-477C-8AD5-7D23FC747EB2}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>category_status</t>
-  </si>
-  <si>
-    <t>A. James Clark School of Engineering</t>
-  </si>
-  <si>
-    <t>College of Agriculture &amp; Natural Resources</t>
-  </si>
-  <si>
-    <t>College of Arts &amp; Humanities</t>
-  </si>
-  <si>
-    <t>College of Behavioral &amp; Social Sciences</t>
-  </si>
-  <si>
-    <t>College of Computer, Math &amp; Natural Sciences</t>
-  </si>
-  <si>
-    <t>College of Education</t>
-  </si>
-  <si>
-    <t>College of Information Studies</t>
-  </si>
-  <si>
-    <t>Philip Merrill College of Journalism</t>
-  </si>
-  <si>
-    <t>Robert H. Smith School of Business</t>
-  </si>
-  <si>
-    <t>School of Architecture, Planning, &amp; Preservation</t>
-  </si>
-  <si>
-    <t>School of Public Health</t>
-  </si>
-  <si>
-    <t>School of Public Policy</t>
-  </si>
-  <si>
-    <t>Exempt Contingent II</t>
-  </si>
-  <si>
-    <t>Exempt Regular</t>
-  </si>
-  <si>
-    <t>Non-Tenured, Non-Regular Faculty</t>
-  </si>
-  <si>
-    <t>Non-Tenured, Term. Contr. Faculty</t>
-  </si>
-  <si>
-    <t>Non-Tenured,Cont. Contr. Faculty</t>
-  </si>
-  <si>
-    <t>Nonexempt Contingent II</t>
-  </si>
-  <si>
-    <t>Nonexempt Regular</t>
-  </si>
-  <si>
-    <t>Tenure Track Faculty</t>
-  </si>
-  <si>
-    <t>Tenured Faculty</t>
-  </si>
-  <si>
-    <t>avg_salary</t>
-  </si>
-  <si>
-    <t>All Colleges</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">category_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. James Clark School of Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Agriculture &amp; Natural Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Arts &amp; Humanities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Behavioral &amp; Social Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Computer, Math &amp; Natural Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Information Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip Merrill College of Journalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert H. Smith School of Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Architecture, Planning, &amp; Preservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Public Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exempt Contingent II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exempt Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Tenured, Non-Regular Faculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Tenured, Term. Contr. Faculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Tenured,Cont. Contr. Faculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonexempt Contingent II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonexempt Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenure Track Faculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenured Faculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,15 +125,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,16 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,390 +453,369 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>55816.754999999997</v>
-      </c>
-      <c r="C2">
-        <v>52953.074999999997</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>55816.755</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52953.075</v>
+      </c>
+      <c r="D2" t="n">
         <v>55275</v>
       </c>
-      <c r="G2">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
         <v>80000</v>
       </c>
-      <c r="H2">
-        <v>49002.815000000002</v>
-      </c>
-      <c r="J2">
+      <c r="H2" t="n">
+        <v>49002.815</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="n">
         <v>88270.83</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>72737.14</v>
       </c>
-      <c r="L2">
-        <v>66726.320000000007</v>
-      </c>
-      <c r="M2">
+      <c r="L2" t="n">
+        <v>66726.32</v>
+      </c>
+      <c r="M2" t="n">
         <v>72810.31</v>
       </c>
-      <c r="N2">
-        <v>57680</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>91898.83</v>
       </c>
-      <c r="C3">
-        <v>79571.994999999995</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>79571.995</v>
+      </c>
+      <c r="D3" t="n">
         <v>78468.87</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>82100</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>83780.61</v>
       </c>
-      <c r="G3">
-        <v>72405.149999999994</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>72405.15</v>
+      </c>
+      <c r="H3" t="n">
         <v>75075</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>96942.37</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>83568.92</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>84192.19</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>80786.61</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>97050.29</v>
       </c>
-      <c r="N3">
-        <v>82554.570000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>19022</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>12000</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>12456</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>12696.28</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>20660.22</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>10000</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>10718</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>8573.74</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>21000</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>20712.12</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>11965.03</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>16973.64</v>
       </c>
-      <c r="N4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>87905.35</v>
       </c>
-      <c r="C5">
-        <v>75565.145000000004</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>75565.145</v>
+      </c>
+      <c r="D5" t="n">
         <v>51288</v>
       </c>
-      <c r="E5">
-        <v>77466.710000000006</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>77466.71</v>
+      </c>
+      <c r="F5" t="n">
         <v>82667</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>61295.44</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>96214</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>95499.54</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>116820.435</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>30000</v>
       </c>
-      <c r="L5">
-        <v>65613.490000000005</v>
-      </c>
-      <c r="M5">
+      <c r="L5" t="n">
+        <v>65613.49</v>
+      </c>
+      <c r="M5" t="n">
         <v>50914.42</v>
       </c>
-      <c r="N5">
-        <v>64854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>80029.48</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>60949.36</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>72871.45</v>
       </c>
-      <c r="E6">
-        <v>77298.539999999994</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>77298.54</v>
+      </c>
+      <c r="F6" t="n">
         <v>78022.5</v>
       </c>
-      <c r="G6">
-        <v>69214.539999999994</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>69214.54</v>
+      </c>
+      <c r="H6" t="n">
         <v>96375.11</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>87864.55</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>165313.29</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>79157.3</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>78134.36</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>98460.6</v>
       </c>
-      <c r="N6">
-        <v>75892.005000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>40091.800000000003</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>40091.8</v>
+      </c>
+      <c r="C7" t="n">
         <v>43202.32</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>41461.81</v>
       </c>
-      <c r="F7">
-        <v>28918.955000000002</v>
-      </c>
-      <c r="N7">
-        <v>43096.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>28918.955</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>51369.36</v>
       </c>
-      <c r="C8">
-        <v>47075.199999999997</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>47075.2</v>
+      </c>
+      <c r="D8" t="n">
         <v>50475.88</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>51369.71</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>51248.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>52320.94</v>
       </c>
-      <c r="H8">
-        <v>49517.135000000002</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="n">
+        <v>49517.135</v>
+      </c>
+      <c r="I8" t="n">
         <v>44500</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>52955.85</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>50975.89</v>
       </c>
-      <c r="L8">
-        <v>56608.544999999998</v>
-      </c>
-      <c r="M8">
+      <c r="L8" t="n">
+        <v>56608.545</v>
+      </c>
+      <c r="M8" t="n">
         <v>52031.49</v>
       </c>
-      <c r="N8">
-        <v>49939.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>113921.29</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>86726.54</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>85000</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>106269.51</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>111063.685</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>100000</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>117735.55</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>95000</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>216515.505</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>86500</v>
       </c>
-      <c r="L9">
-        <v>103658.08500000001</v>
-      </c>
-      <c r="M9">
+      <c r="L9" t="n">
+        <v>103658.085</v>
+      </c>
+      <c r="M9" t="n">
         <v>113649.39</v>
       </c>
-      <c r="N9">
-        <v>101945.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>156507.14000000001</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>156507.14</v>
+      </c>
+      <c r="C10" t="n">
         <v>125141.91</v>
       </c>
-      <c r="D10">
-        <v>115226.44500000001</v>
-      </c>
-      <c r="E10">
-        <v>162801.60000000001</v>
-      </c>
-      <c r="F10">
-        <v>145308.86499999999</v>
-      </c>
-      <c r="G10">
+      <c r="D10" t="n">
+        <v>115226.445</v>
+      </c>
+      <c r="E10" t="n">
+        <v>162801.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>145308.865</v>
+      </c>
+      <c r="G10" t="n">
         <v>134696.63</v>
       </c>
-      <c r="H10">
-        <v>137735.60999999999</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>137735.61</v>
+      </c>
+      <c r="I10" t="n">
         <v>136696.12</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>267957.125</v>
       </c>
-      <c r="K10">
-        <v>114733.58500000001</v>
-      </c>
-      <c r="L10">
-        <v>136017.60999999999</v>
-      </c>
-      <c r="M10">
+      <c r="K10" t="n">
+        <v>114733.585</v>
+      </c>
+      <c r="L10" t="n">
+        <v>136017.61</v>
+      </c>
+      <c r="M10" t="n">
         <v>168206.18</v>
-      </c>
-      <c r="N10">
-        <v>140907.70000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B2:B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,80 +823,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>57680</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>82554.570000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="n">
+        <v>82554.57</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>64854</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>75892.005000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="n">
+        <v>75892.005</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>43096.22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>49939.01</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>101945.68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>140907.70000000001</v>
+      <c r="B10" t="n">
+        <v>140907.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>